--- a/config/point.xlsx
+++ b/config/point.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="224">
   <si>
     <t>序号</t>
   </si>
@@ -35,7 +35,10 @@
     <t>0_19920_1_3_0</t>
   </si>
   <si>
-    <t>0_19920_1_4_0</t>
+    <t>0_346_1_607_0</t>
+  </si>
+  <si>
+    <t>louceng/lwt/节能柜空调</t>
   </si>
   <si>
     <t>分类</t>
@@ -1148,7 +1151,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1247,1550 +1250,1550 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="4">
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4">
         <v>0.63</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="4">
         <v>300</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="4">
         <v>5</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="4">
         <v>1.42</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="4">
         <v>0.39</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="4">
         <v>0.1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="3">
         <v>300</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="3">
         <v>189</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="3">
         <v>111</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="3">
         <v>1134</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="3">
         <v>1610.28</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="3">
         <v>27216</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="3">
         <v>38646.72</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="3">
         <v>1200</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="3">
         <v>30</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D24" s="3">
         <v>300</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D25" s="1">
         <v>189</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D26" s="1">
         <v>111</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D27" s="1">
         <v>1134</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D28" s="1">
         <v>1610.28</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D29" s="1">
         <v>27216</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D30" s="1">
         <v>38646.72</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="3"/>
     </row>
     <row r="31" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D31" s="1">
         <v>1200</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
     </row>
     <row r="32" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D32" s="1">
         <v>30</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="3"/>
     </row>
     <row r="33" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D33" s="1">
         <v>300</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
     </row>
     <row r="34" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D34" s="1">
         <v>189</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="3"/>
     </row>
     <row r="35" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D35" s="1">
         <v>111</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="3"/>
     </row>
     <row r="36" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D36" s="1">
         <v>1134</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="3"/>
     </row>
     <row r="37" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D37" s="1">
         <v>1610.28</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="3"/>
     </row>
     <row r="38" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D38" s="1">
         <v>27216</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="3"/>
     </row>
     <row r="39" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D39" s="1">
         <v>38646.72</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="3"/>
     </row>
     <row r="40" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D40" s="1">
         <v>1200</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="3"/>
     </row>
     <row r="41" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D41" s="1">
         <v>30</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="3"/>
     </row>
     <row r="42" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D42" s="1">
         <v>300</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="3"/>
     </row>
     <row r="43" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D43" s="1">
         <v>189</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="3"/>
     </row>
     <row r="44" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D44" s="1">
         <v>111</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="3"/>
     </row>
     <row r="45" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D45" s="1">
         <v>0.14699999999999996</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="3"/>
     </row>
     <row r="46" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D46" s="1">
         <v>0.25199999999999995</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="3"/>
     </row>
     <row r="47" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D47" s="1">
         <v>0.020999999999999998</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="3"/>
     </row>
     <row r="48" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D48" s="1">
         <v>1.42</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="3"/>
     </row>
     <row r="49" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D49" s="1">
         <v>0.39</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="3"/>
     </row>
     <row r="50" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D50" s="1">
         <v>0.01045968876</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="3"/>
     </row>
     <row r="51" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="3"/>
     </row>
     <row r="52" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="3"/>
     </row>
     <row r="53" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D53" s="1">
         <v>1134</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="3"/>
     </row>
     <row r="54" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D54" s="1">
         <v>1610.28</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="3"/>
     </row>
     <row r="55" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D55" s="1">
         <v>27216</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="3"/>
     </row>
     <row r="56" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D56" s="1">
         <v>38646.72</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="3"/>
     </row>
     <row r="57" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G57" s="3"/>
     </row>
     <row r="58" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D58" s="1">
         <v>15.0722208</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="3"/>
     </row>
     <row r="59" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D59" s="1">
         <v>4.278191904</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="3"/>
     </row>
     <row r="60" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D60" s="1">
         <v>11.86128705384</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="3"/>
     </row>
     <row r="61" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D61" s="1">
         <v>6858.431999999998</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="3"/>
     </row>
     <row r="62" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D62" s="1">
         <v>1200</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="3"/>
     </row>
     <row r="63" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D63" s="1">
         <v>0.17496710618403746</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D64" s="1">
         <v>3195</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="3"/>
     </row>
     <row r="65" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D65" s="1">
         <v>2556</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="3"/>
     </row>
     <row r="66" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D66" s="1">
         <v>48.3084</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G66" s="3"/>
     </row>
     <row r="67" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D67" s="1">
         <v>30</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="3"/>
     </row>
     <row r="68" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D68" s="1">
         <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="3"/>
     </row>
     <row r="69" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D69" s="1">
         <v>450</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="3"/>
     </row>
     <row r="70" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D70" s="1">
         <v>1.24605</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="3"/>
     </row>
     <row r="71" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D71" s="1">
         <v>0.6280092</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="3"/>
     </row>
     <row r="72" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D72" s="1">
         <v>3</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="3"/>
     </row>
     <row r="73" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
     </row>
     <row r="74" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D74" s="1">
         <v>115.94016</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
     </row>
     <row r="75" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D75" s="1">
         <v>452.166624</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
     </row>
     <row r="76" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D76" s="1">
         <v>128.34575712</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
     </row>
     <row r="77" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D77" s="1">
         <v>355.8386116152</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
     </row>
     <row r="78" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D78" s="1">
         <v>15120</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
     </row>
     <row r="79" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D79" s="1">
         <v>9525</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
     </row>
     <row r="80" ht="20" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D80" s="1">
         <v>0.63</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>

--- a/config/point.xlsx
+++ b/config/point.xlsx
@@ -1229,7 +1229,7 @@
     <t>二次泵能耗</t>
   </si>
   <si>
-    <t>Σ二次冷冻泵最近上一级配电柜总有功电度</t>
+    <t>Σ二次冷冻泵最��上一级配电柜总有功电度</t>
   </si>
   <si>
     <t>A48</t>
@@ -1858,13 +1858,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J200"/>
+  <dimension ref="A1:I200"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="10" width="10" customWidth="1"/>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="58.375" customWidth="1"/>
+    <col min="5" max="9" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1880,9 +1884,8 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1900,9 +1903,8 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1920,9 +1922,8 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1940,7 +1941,6 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
     </row>
     <row r="5" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2149,7 +2149,15 @@
   <dimension ref="A1:I200"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="9" width="10" customWidth="1"/>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="60.5" customWidth="1"/>
+    <col min="6" max="6" width="6.5" customWidth="1"/>
+    <col min="7" max="7" width="7.5" customWidth="1"/>
+    <col min="8" max="8" width="110.5" customWidth="1"/>
+    <col min="9" max="9" width="3.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">

--- a/config/point.xlsx
+++ b/config/point.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="487">
   <si>
     <t>序号</t>
   </si>
@@ -542,6 +542,9 @@
     <t>SCOP</t>
   </si>
   <si>
+    <t>0.17496710618403746</t>
+  </si>
+  <si>
     <t>楼栋.制冷量/(楼栋.IT能耗*(输入.pue-1)*0.6)</t>
   </si>
   <si>
@@ -704,6 +707,9 @@
     <t>柴发带载百分比</t>
   </si>
   <si>
+    <t>0.8190000000000001</t>
+  </si>
+  <si>
     <t>输入.使用率*1.3</t>
   </si>
   <si>
@@ -1160,6 +1166,9 @@
     <t>0_22455_1_105_0</t>
   </si>
   <si>
+    <t>27216.000000000004</t>
+  </si>
+  <si>
     <t>园区.能耗/输入.pue</t>
   </si>
   <si>
@@ -1406,6 +1415,9 @@
     <t>plf</t>
   </si>
   <si>
+    <t>0.14699999999999996</t>
+  </si>
+  <si>
     <t>(输入.pue-1)*0.35</t>
   </si>
   <si>
@@ -1418,6 +1430,9 @@
     <t>clf</t>
   </si>
   <si>
+    <t>0.25199999999999995</t>
+  </si>
+  <si>
     <t>(输入.pue-1)*0.6</t>
   </si>
   <si>
@@ -1428,6 +1443,9 @@
   </si>
   <si>
     <t>olf</t>
+  </si>
+  <si>
+    <t>0.020999999999999998</t>
   </si>
   <si>
     <t>(输入.pue-1)*0.05</t>
@@ -1895,9 +1913,9 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="5.875" customWidth="1"/>
-    <col min="4" max="4" width="46.875" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="4.875" customWidth="1"/>
+    <col min="4" max="4" width="45.875" customWidth="1"/>
     <col min="5" max="5" customWidth="1"/>
     <col min="6" max="6" customWidth="1"/>
     <col min="7" max="7" customWidth="1"/>
@@ -2244,15 +2262,14 @@
   <dimension ref="A1:I200"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="24.375" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="59.25" customWidth="1"/>
-    <col min="6" max="6" width="5.25" customWidth="1"/>
-    <col min="7" max="7" width="6.25" customWidth="1"/>
-    <col min="8" max="8" width="109.25" customWidth="1"/>
-    <col min="9" max="9" width="2.625" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="5" max="5" width="58.25" customWidth="1"/>
+    <col min="6" max="6" width="4.25" customWidth="1"/>
+    <col min="7" max="7" width="5.25" customWidth="1"/>
+    <col min="8" max="8" width="108.25" customWidth="1"/>
+    <col min="9" max="9" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3681,18 +3698,18 @@
       <c r="C59" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D59" s="6">
-        <v>0.17496710618403746</v>
+      <c r="D59" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I59" s="6"/>
     </row>
@@ -3701,16 +3718,16 @@
         <v>130</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="6">
         <v>811.5811199999999</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>28</v>
@@ -3719,10 +3736,10 @@
         <v>84</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3730,16 +3747,16 @@
         <v>130</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="6">
         <v>2556</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>28</v>
@@ -3748,10 +3765,10 @@
         <v>33</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3759,14 +3776,14 @@
         <v>130</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>28</v>
@@ -3775,10 +3792,10 @@
         <v>33</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3786,16 +3803,16 @@
         <v>130</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D63" s="6">
         <v>15120</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>28</v>
@@ -3811,16 +3828,16 @@
         <v>130</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D64" s="6">
         <v>9525.6</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>28</v>
@@ -3836,16 +3853,16 @@
         <v>130</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D65" s="6">
         <v>0.63</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>28</v>
@@ -3858,19 +3875,19 @@
     </row>
     <row r="66" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D66" s="6">
         <v>3195</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>36</v>
@@ -3883,19 +3900,19 @@
     </row>
     <row r="67" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D67" s="6">
         <v>2556</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>36</v>
@@ -3908,35 +3925,35 @@
     </row>
     <row r="68" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D68" s="6">
         <v>48.3084</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H68" s="5"/>
       <c r="I68" s="6"/>
     </row>
     <row r="69" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>90</v>
@@ -3945,7 +3962,7 @@
         <v>30</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>28</v>
@@ -3958,19 +3975,19 @@
     </row>
     <row r="70" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D70" s="6">
         <v>97.5</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>28</v>
@@ -3983,19 +4000,19 @@
     </row>
     <row r="71" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D71" s="6">
         <v>450</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>36</v>
@@ -4008,133 +4025,133 @@
     </row>
     <row r="72" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D72" s="6">
         <v>0.09</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="73" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="D73" s="6">
-        <v>0.8190000000000001</v>
+        <v>230</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>231</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>37</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="74" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D74" s="6">
         <v>1.24605</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H74" s="5"/>
       <c r="I74" s="6"/>
     </row>
     <row r="75" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D75" s="6">
         <v>0.6280092</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H75" s="5"/>
       <c r="I75" s="6"/>
     </row>
     <row r="76" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D76" s="6">
         <v>3</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H76" s="5"/>
       <c r="I76" s="6"/>
@@ -4144,16 +4161,16 @@
         <v>82</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D77" s="6">
         <v>115.94016</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>36</v>
@@ -4169,16 +4186,16 @@
         <v>82</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D78" s="6">
         <v>452.166624</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>36</v>
@@ -4194,22 +4211,22 @@
         <v>82</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D79" s="6">
         <v>128.34575712</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H79" s="5"/>
       <c r="I79" s="6"/>
@@ -4219,128 +4236,128 @@
         <v>82</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D80" s="6">
         <v>355.8386116152</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H80" s="5"/>
       <c r="I80" s="6"/>
     </row>
     <row r="81" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D81" s="6">
         <v>27</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="82" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D82" s="6">
         <v>18</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="83" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D83" s="6">
         <v>24</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F83" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="84" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D84" s="6">
         <v>25.3</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>28</v>
@@ -4349,27 +4366,27 @@
         <v>37</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="85" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D85" s="6">
         <v>43.8</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>28</v>
@@ -4378,27 +4395,27 @@
         <v>37</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="86" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D86" s="6">
         <v>35</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>28</v>
@@ -4407,27 +4424,27 @@
         <v>37</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="87" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D87" s="6">
         <v>285.7679999999999</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>28</v>
@@ -4436,21 +4453,21 @@
         <v>33</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="88" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
@@ -4461,21 +4478,21 @@
         <v>33</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="89" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
@@ -4486,21 +4503,21 @@
         <v>33</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="90" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
@@ -4511,21 +4528,21 @@
         <v>33</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="91" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
@@ -4536,21 +4553,21 @@
         <v>33</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="92" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
@@ -4561,21 +4578,21 @@
         <v>33</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="93" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
@@ -4586,21 +4603,21 @@
         <v>33</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="94" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
@@ -4611,21 +4628,21 @@
         <v>33</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="95" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
@@ -4636,21 +4653,21 @@
         <v>33</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="96" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
@@ -4661,21 +4678,21 @@
         <v>33</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="97" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
@@ -4686,21 +4703,21 @@
         <v>33</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="98" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
@@ -4711,21 +4728,21 @@
         <v>33</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="99" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
@@ -4736,21 +4753,21 @@
         <v>33</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="100" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
@@ -4761,60 +4778,60 @@
         <v>33</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="101" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="102" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="103" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4822,10 +4839,10 @@
         <v>82</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
@@ -4836,10 +4853,10 @@
         <v>33</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="104" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4847,10 +4864,10 @@
         <v>82</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
@@ -4861,10 +4878,10 @@
         <v>33</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="105" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4872,16 +4889,16 @@
         <v>82</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D105" s="6">
         <v>4.875</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F105" s="6" t="s">
         <v>28</v>
@@ -4890,10 +4907,10 @@
         <v>33</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="106" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4901,10 +4918,10 @@
         <v>82</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
@@ -4915,10 +4932,10 @@
         <v>33</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="107" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4926,10 +4943,10 @@
         <v>82</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
@@ -4940,10 +4957,10 @@
         <v>33</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="108" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4951,10 +4968,10 @@
         <v>82</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
@@ -4965,10 +4982,10 @@
         <v>84</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="109" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4976,16 +4993,16 @@
         <v>82</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D109" s="6">
-        <v>27216.000000000004</v>
+      <c r="D109" s="6" t="s">
+        <v>384</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>28</v>
@@ -4994,10 +5011,10 @@
         <v>84</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="110" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5005,16 +5022,16 @@
         <v>82</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D110" s="6">
         <v>811.5811199999999</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F110" s="6" t="s">
         <v>28</v>
@@ -5023,10 +5040,10 @@
         <v>84</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="111" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5034,10 +5051,10 @@
         <v>82</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
@@ -5048,10 +5065,10 @@
         <v>84</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="112" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5059,10 +5076,10 @@
         <v>82</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
@@ -5073,10 +5090,10 @@
         <v>84</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="113" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5084,10 +5101,10 @@
         <v>82</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="6"/>
@@ -5098,10 +5115,10 @@
         <v>84</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="114" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5109,10 +5126,10 @@
         <v>82</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
@@ -5123,10 +5140,10 @@
         <v>84</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="115" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5134,10 +5151,10 @@
         <v>82</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
@@ -5148,10 +5165,10 @@
         <v>84</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="116" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5159,10 +5176,10 @@
         <v>82</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
@@ -5173,10 +5190,10 @@
         <v>84</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="117" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5184,10 +5201,10 @@
         <v>82</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
@@ -5198,10 +5215,10 @@
         <v>84</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="118" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5209,10 +5226,10 @@
         <v>82</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
@@ -5223,10 +5240,10 @@
         <v>84</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="119" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5234,10 +5251,10 @@
         <v>82</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
@@ -5248,10 +5265,10 @@
         <v>84</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="120" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5259,10 +5276,10 @@
         <v>82</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
@@ -5273,10 +5290,10 @@
         <v>84</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="121" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5284,10 +5301,10 @@
         <v>82</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
@@ -5298,10 +5315,10 @@
         <v>84</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="122" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5309,10 +5326,10 @@
         <v>82</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D122" s="6"/>
       <c r="E122" s="6"/>
@@ -5323,10 +5340,10 @@
         <v>84</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="123" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5334,10 +5351,10 @@
         <v>82</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
@@ -5348,10 +5365,10 @@
         <v>84</v>
       </c>
       <c r="H123" s="6" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="124" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5359,10 +5376,10 @@
         <v>82</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
@@ -5373,10 +5390,10 @@
         <v>84</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="125" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5384,10 +5401,10 @@
         <v>82</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D125" s="6"/>
       <c r="E125" s="6"/>
@@ -5398,10 +5415,10 @@
         <v>84</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="126" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5409,10 +5426,10 @@
         <v>82</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
@@ -5423,10 +5440,10 @@
         <v>84</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="127" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5434,10 +5451,10 @@
         <v>82</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
@@ -5448,10 +5465,10 @@
         <v>84</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="128" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5459,10 +5476,10 @@
         <v>82</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D128" s="6"/>
       <c r="E128" s="6"/>
@@ -5473,10 +5490,10 @@
         <v>84</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="129" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5484,10 +5501,10 @@
         <v>82</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D129" s="6"/>
       <c r="E129" s="6"/>
@@ -5498,96 +5515,96 @@
         <v>84</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="130" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="D130" s="6">
-        <v>0.14699999999999996</v>
+        <v>466</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>467</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G130" s="6"/>
       <c r="H130" s="5" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="I130" s="6"/>
     </row>
     <row r="131" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="D131" s="6">
-        <v>0.25199999999999995</v>
+        <v>471</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>472</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G131" s="6"/>
       <c r="H131" s="5" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="I131" s="6"/>
     </row>
     <row r="132" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="D132" s="6">
-        <v>0.020999999999999998</v>
+        <v>476</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>477</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G132" s="6"/>
       <c r="H132" s="5" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="I132" s="6"/>
     </row>
     <row r="133" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="D133" s="6"/>
       <c r="E133" s="6"/>
@@ -5596,21 +5613,21 @@
       </c>
       <c r="G133" s="6"/>
       <c r="H133" s="6" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="134" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="D134" s="6"/>
       <c r="E134" s="6"/>
@@ -5619,10 +5636,10 @@
       </c>
       <c r="G134" s="6"/>
       <c r="H134" s="6" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="135" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
